--- a/TeamAustinMichaelOscarTarikReport_Sprint_3.xlsx
+++ b/TeamAustinMichaelOscarTarikReport_Sprint_3.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C954C718-43C4-4187-A225-E5C151D25600}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" tabRatio="832" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6225" tabRatio="832" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +18,8 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
+  <oleSize ref="A1:J21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="241">
   <si>
     <t>Done</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -794,7 +791,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2142,7 +2139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -2150,12 +2147,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2240,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
@@ -2253,7 +2250,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="18" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -2262,7 +2259,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="4:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -2331,10 +2328,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2342,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -2350,13 +2347,13 @@
       <selection activeCell="A24" sqref="A24:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2393,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2860,7 +2857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2868,14 +2865,14 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3055,22 +3052,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="98" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3183,25 +3180,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="98" workbookViewId="0">
       <selection activeCell="I15" sqref="F2:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3465,7 +3462,7 @@
         <v>42066</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3657,7 +3654,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>204</v>
       </c>
@@ -3680,20 +3677,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="98" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -3725,7 +3722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3757,7 +3754,7 @@
         <v>41710</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3853,7 +3850,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3885,7 +3882,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3917,7 +3914,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3949,7 +3946,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3981,7 +3978,7 @@
         <v>41717</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3990,7 +3987,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -3999,14 +3996,14 @@
       <c r="F11" s="17"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
@@ -4015,50 +4012,50 @@
       <c r="F13" s="17"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="C14" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C15" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="C18" s="19" t="s">
         <v>205</v>
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="J24" s="7"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -4066,7 +4063,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -4074,7 +4071,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -4110,20 +4107,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +4149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4181,7 +4178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4239,7 +4236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4268,7 +4265,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4326,13 +4323,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -4345,17 +4342,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -4382,6 +4379,34 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4391,18 +4416,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="B13" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4416,7 +4441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4427,7 +4452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4438,7 +4463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4449,7 +4474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4460,7 +4485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -4471,7 +4496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4482,7 +4507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -4493,7 +4518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4504,7 +4529,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -4515,7 +4540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4526,7 +4551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4537,7 +4562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4548,7 +4573,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4559,7 +4584,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4570,7 +4595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -4581,7 +4606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4592,7 +4617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4603,7 +4628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -4614,7 +4639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4625,7 +4650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4636,7 +4661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4647,7 +4672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -4658,7 +4683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -4669,7 +4694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4680,7 +4705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4691,7 +4716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -4702,7 +4727,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4713,7 +4738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4724,7 +4749,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4735,7 +4760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4746,7 +4771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4757,7 +4782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4768,7 +4793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4779,7 +4804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4790,7 +4815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4801,7 +4826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4812,7 +4837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4823,7 +4848,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4834,7 +4859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4845,7 +4870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4856,7 +4881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4867,7 +4892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>156</v>
       </c>

--- a/TeamAustinMichaelOscarTarikReport_Sprint_3.xlsx
+++ b/TeamAustinMichaelOscarTarikReport_Sprint_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C954C718-43C4-4187-A225-E5C151D25600}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B9B12DC5-DDD4-40FE-9CEE-C87F23B82121}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6225" tabRatio="832" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6225" tabRatio="832" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
-  <oleSize ref="A1:J21"/>
+  <oleSize ref="B13:E21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -3690,7 +3690,7 @@
     <col min="3" max="3" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>41710</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>41713</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>41717</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3987,7 +3987,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
@@ -3996,14 +3996,14 @@
       <c r="F11" s="17"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="19" t="s">
         <v>203</v>
       </c>
@@ -4022,34 +4022,34 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" s="19" t="s">
         <v>205</v>
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="3:10" ht="12.6" x14ac:dyDescent="0.2">
@@ -4149,7 +4149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4323,13 +4323,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -4346,7 +4346,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4420,8 +4420,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
